--- a/data/input/shechle_aim.xlsx
+++ b/data/input/shechle_aim.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
   <si>
     <t>日期</t>
-  </si>
-  <si>
-    <t>week_num</t>
   </si>
   <si>
     <t>SKU</t>
@@ -108,35 +105,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFF54A45"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF1F2329"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -283,18 +265,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -483,27 +459,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,145 +585,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1288,2433 +1247,1791 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="13.1538461538462" style="1"/>
+    <col min="1" max="1" width="13.1538461538462" style="1"/>
+    <col min="3" max="3" width="17.9423076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>45932</v>
       </c>
-      <c r="B2" s="3" t="str">
-        <f>YEAR(A2)&amp;WEEKNUM(A2)</f>
-        <v>202540</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>45939</v>
       </c>
-      <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B34" si="0">YEAR(A3)&amp;WEEKNUM(A3)</f>
-        <v>202541</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>45946</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202542</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>45953</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202543</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>45960</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>45967</v>
       </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202545</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>45974</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>45981</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>45932</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202540</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>45939</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202541</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>45946</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202542</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>45953</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202543</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>45960</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>45967</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202545</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>45974</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>45981</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>45932</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202540</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>45939</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202541</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>45946</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202542</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>45953</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202543</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>45960</v>
       </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>45967</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202545</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>45974</v>
       </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>45981</v>
       </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>45932</v>
       </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202540</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>45939</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202541</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>45946</v>
       </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202542</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>45953</v>
       </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202543</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>45960</v>
       </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202544</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>45967</v>
       </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202545</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>45974</v>
       </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202546</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>45981</v>
       </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202547</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
         <v>1100</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>45932</v>
       </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>202540</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>45939</v>
       </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" ref="B35:B66" si="1">YEAR(A35)&amp;WEEKNUM(A35)</f>
-        <v>202541</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>45946</v>
       </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202542</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>45953</v>
       </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202543</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>45960</v>
       </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202544</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>45967</v>
       </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202545</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>45974</v>
       </c>
-      <c r="B40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202546</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
         <v>1100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>45981</v>
       </c>
-      <c r="B41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202547</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>45932</v>
       </c>
-      <c r="B42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202540</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>45939</v>
       </c>
-      <c r="B43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202541</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>45946</v>
       </c>
-      <c r="B44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202542</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>45953</v>
       </c>
-      <c r="B45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202543</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>45960</v>
       </c>
-      <c r="B46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202544</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45967</v>
       </c>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202545</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>45974</v>
       </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202546</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>45981</v>
       </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202547</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
         <v>1300</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>45932</v>
       </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202540</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50">
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>45939</v>
       </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202541</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>45946</v>
       </c>
-      <c r="B52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202542</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>45953</v>
       </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202543</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>45960</v>
       </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202544</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>45967</v>
       </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202545</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55">
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
         <v>1200</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>45974</v>
       </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202546</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
         <v>1300</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>45981</v>
       </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202547</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>45932</v>
       </c>
-      <c r="B58" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202540</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>45939</v>
       </c>
-      <c r="B59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202541</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>45946</v>
       </c>
-      <c r="B60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202542</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>45953</v>
       </c>
-      <c r="B61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202543</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
         <v>1100</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>45960</v>
       </c>
-      <c r="B62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202544</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>45967</v>
       </c>
-      <c r="B63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202545</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
         <v>1300</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>45974</v>
       </c>
-      <c r="B64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202546</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
         <v>1400</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>45981</v>
       </c>
-      <c r="B65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202547</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
         <v>1500</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>45932</v>
       </c>
-      <c r="B66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>202540</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>45939</v>
       </c>
-      <c r="B67" s="3" t="str">
-        <f t="shared" ref="B67:B98" si="2">YEAR(A67)&amp;WEEKNUM(A67)</f>
-        <v>202541</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>45946</v>
       </c>
-      <c r="B68" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202542</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>45953</v>
       </c>
-      <c r="B69" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202543</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69">
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
         <v>1200</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>45960</v>
       </c>
-      <c r="B70" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202544</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
         <v>1300</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>45967</v>
       </c>
-      <c r="B71" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202545</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71">
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
         <v>1400</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>45974</v>
       </c>
-      <c r="B72" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202546</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72">
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>45981</v>
       </c>
-      <c r="B73" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202547</v>
-      </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>45932</v>
       </c>
-      <c r="B74" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202540</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74">
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>45939</v>
       </c>
-      <c r="B75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202541</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>45946</v>
       </c>
-      <c r="B76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202542</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>45953</v>
       </c>
-      <c r="B77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202543</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77">
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
         <v>1300</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>45960</v>
       </c>
-      <c r="B78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202544</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78">
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
         <v>1400</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>45967</v>
       </c>
-      <c r="B79" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202545</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79">
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
         <v>1500</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>45974</v>
       </c>
-      <c r="B80" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202546</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80">
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
         <v>1600</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>45981</v>
       </c>
-      <c r="B81" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202547</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
         <v>1700</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>45932</v>
       </c>
-      <c r="B82" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202540</v>
-      </c>
-      <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
         <v>1100</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45939</v>
       </c>
-      <c r="B83" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202541</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>45946</v>
       </c>
-      <c r="B84" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202542</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>45953</v>
       </c>
-      <c r="B85" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202543</v>
-      </c>
-      <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
         <v>1400</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>45960</v>
       </c>
-      <c r="B86" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202544</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86">
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
         <v>1500</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>45967</v>
       </c>
-      <c r="B87" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202545</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87">
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
         <v>1600</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>45974</v>
       </c>
-      <c r="B88" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202546</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88">
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
         <v>1700</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>45981</v>
       </c>
-      <c r="B89" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202547</v>
-      </c>
-      <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89">
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
         <v>1800</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>45932</v>
       </c>
-      <c r="B90" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202540</v>
-      </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90">
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
         <v>1200</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>45939</v>
       </c>
-      <c r="B91" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202541</v>
-      </c>
-      <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>45946</v>
       </c>
-      <c r="B92" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202542</v>
-      </c>
-      <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>45953</v>
       </c>
-      <c r="B93" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202543</v>
-      </c>
-      <c r="C93" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93">
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
         <v>1500</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>45960</v>
       </c>
-      <c r="B94" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202544</v>
-      </c>
-      <c r="C94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94">
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>45967</v>
       </c>
-      <c r="B95" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202545</v>
-      </c>
-      <c r="C95" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95">
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
         <v>1700</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>45974</v>
       </c>
-      <c r="B96" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202546</v>
-      </c>
-      <c r="C96" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96">
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
         <v>1800</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>45981</v>
       </c>
-      <c r="B97" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202547</v>
-      </c>
-      <c r="C97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97">
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
         <v>1900</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>45932</v>
       </c>
-      <c r="B98" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>202540</v>
-      </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98">
         <v>1300</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>45939</v>
       </c>
-      <c r="B99" s="3" t="str">
-        <f t="shared" ref="B99:B130" si="3">YEAR(A99)&amp;WEEKNUM(A99)</f>
-        <v>202541</v>
-      </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>45946</v>
       </c>
-      <c r="B100" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202542</v>
-      </c>
-      <c r="C100" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>45953</v>
       </c>
-      <c r="B101" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202543</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
         <v>1600</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>45960</v>
       </c>
-      <c r="B102" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202544</v>
-      </c>
-      <c r="C102" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102">
         <v>1700</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>45967</v>
       </c>
-      <c r="B103" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202545</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103">
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103">
         <v>1800</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>45974</v>
       </c>
-      <c r="B104" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202546</v>
-      </c>
-      <c r="C104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
         <v>1900</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>45981</v>
       </c>
-      <c r="B105" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202547</v>
-      </c>
-      <c r="C105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105">
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
         <v>2000</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>45932</v>
       </c>
-      <c r="B106" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202540</v>
-      </c>
-      <c r="C106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106">
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
         <v>1400</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>45939</v>
       </c>
-      <c r="B107" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202541</v>
-      </c>
-      <c r="C107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>45946</v>
       </c>
-      <c r="B108" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202542</v>
-      </c>
-      <c r="C108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>45953</v>
       </c>
-      <c r="B109" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202543</v>
-      </c>
-      <c r="C109" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109">
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109">
         <v>1700</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>45960</v>
       </c>
-      <c r="B110" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202544</v>
-      </c>
-      <c r="C110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
         <v>1800</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>45967</v>
       </c>
-      <c r="B111" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202545</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111">
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
         <v>1900</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>45974</v>
       </c>
-      <c r="B112" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202546</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112">
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112">
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>45981</v>
       </c>
-      <c r="B113" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202547</v>
-      </c>
-      <c r="C113" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113">
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113">
         <v>2100</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>45932</v>
       </c>
-      <c r="B114" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202540</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114">
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114">
         <v>1500</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>45939</v>
       </c>
-      <c r="B115" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202541</v>
-      </c>
-      <c r="C115" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>45946</v>
       </c>
-      <c r="B116" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202542</v>
-      </c>
-      <c r="C116" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>45953</v>
       </c>
-      <c r="B117" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202543</v>
-      </c>
-      <c r="C117" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117">
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
         <v>1800</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>45960</v>
       </c>
-      <c r="B118" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202544</v>
-      </c>
-      <c r="C118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118">
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
         <v>1900</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>45967</v>
       </c>
-      <c r="B119" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202545</v>
-      </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119">
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
         <v>2000</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>45974</v>
       </c>
-      <c r="B120" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202546</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120">
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120">
         <v>2100</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>45981</v>
       </c>
-      <c r="B121" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202547</v>
-      </c>
-      <c r="C121" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121">
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121">
         <v>2200</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>45932</v>
       </c>
-      <c r="B122" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202540</v>
-      </c>
-      <c r="C122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122">
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
         <v>1600</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>45939</v>
       </c>
-      <c r="B123" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202541</v>
-      </c>
-      <c r="C123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>45946</v>
       </c>
-      <c r="B124" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202542</v>
-      </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>45953</v>
       </c>
-      <c r="B125" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202543</v>
-      </c>
-      <c r="C125" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125">
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
         <v>1900</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>45960</v>
       </c>
-      <c r="B126" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202544</v>
-      </c>
-      <c r="C126" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126">
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>45967</v>
       </c>
-      <c r="B127" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202545</v>
-      </c>
-      <c r="C127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127">
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
         <v>2100</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>45974</v>
       </c>
-      <c r="B128" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202546</v>
-      </c>
-      <c r="C128" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128">
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
         <v>2200</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>45981</v>
       </c>
-      <c r="B129" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202547</v>
-      </c>
-      <c r="C129" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129">
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
         <v>2300</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>45932</v>
       </c>
-      <c r="B130" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>202540</v>
-      </c>
-      <c r="C130" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130">
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130">
         <v>1700</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>45939</v>
       </c>
-      <c r="B131" s="3" t="str">
-        <f t="shared" ref="B131:B161" si="4">YEAR(A131)&amp;WEEKNUM(A131)</f>
-        <v>202541</v>
-      </c>
-      <c r="C131" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>45946</v>
       </c>
-      <c r="B132" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202542</v>
-      </c>
-      <c r="C132" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>45953</v>
       </c>
-      <c r="B133" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202543</v>
-      </c>
-      <c r="C133" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133">
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133">
         <v>2000</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>45960</v>
       </c>
-      <c r="B134" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202544</v>
-      </c>
-      <c r="C134" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134">
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134">
         <v>2100</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>45967</v>
       </c>
-      <c r="B135" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202545</v>
-      </c>
-      <c r="C135" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135">
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135">
         <v>2200</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>45974</v>
       </c>
-      <c r="B136" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202546</v>
-      </c>
-      <c r="C136" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136">
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136">
         <v>2300</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>45981</v>
       </c>
-      <c r="B137" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202547</v>
-      </c>
-      <c r="C137" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137">
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137">
         <v>2400</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>45932</v>
       </c>
-      <c r="B138" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202540</v>
-      </c>
-      <c r="C138" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138">
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138">
         <v>1800</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>45939</v>
       </c>
-      <c r="B139" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202541</v>
-      </c>
-      <c r="C139" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>45946</v>
       </c>
-      <c r="B140" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202542</v>
-      </c>
-      <c r="C140" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>45953</v>
       </c>
-      <c r="B141" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202543</v>
-      </c>
-      <c r="C141" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141">
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141">
         <v>2100</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>45960</v>
       </c>
-      <c r="B142" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202544</v>
-      </c>
-      <c r="C142" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142">
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142">
         <v>2200</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>45967</v>
       </c>
-      <c r="B143" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202545</v>
-      </c>
-      <c r="C143" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143">
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143">
         <v>2300</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>45974</v>
       </c>
-      <c r="B144" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202546</v>
-      </c>
-      <c r="C144" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144">
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144">
         <v>2400</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>45981</v>
       </c>
-      <c r="B145" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202547</v>
-      </c>
-      <c r="C145" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145">
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145">
         <v>2500</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>45932</v>
       </c>
-      <c r="B146" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202540</v>
-      </c>
-      <c r="C146" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146">
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146">
         <v>1900</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>45939</v>
       </c>
-      <c r="B147" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202541</v>
-      </c>
-      <c r="C147" t="s">
-        <v>22</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>45946</v>
       </c>
-      <c r="B148" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202542</v>
-      </c>
-      <c r="C148" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>45953</v>
       </c>
-      <c r="B149" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202543</v>
-      </c>
-      <c r="C149" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149">
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149">
         <v>2200</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>45960</v>
       </c>
-      <c r="B150" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202544</v>
-      </c>
-      <c r="C150" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150">
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150">
         <v>2300</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>45967</v>
       </c>
-      <c r="B151" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202545</v>
-      </c>
-      <c r="C151" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151">
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151">
         <v>2400</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>45974</v>
       </c>
-      <c r="B152" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202546</v>
-      </c>
-      <c r="C152" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152">
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152">
         <v>2500</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>45981</v>
       </c>
-      <c r="B153" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202547</v>
-      </c>
-      <c r="C153" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153">
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153">
         <v>2600</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>45932</v>
       </c>
-      <c r="B154" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202540</v>
-      </c>
-      <c r="C154" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154">
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154">
         <v>2000</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>45939</v>
       </c>
-      <c r="B155" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202541</v>
-      </c>
-      <c r="C155" t="s">
-        <v>23</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>45946</v>
       </c>
-      <c r="B156" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202542</v>
-      </c>
-      <c r="C156" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>45953</v>
       </c>
-      <c r="B157" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202543</v>
-      </c>
-      <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157">
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157">
         <v>2300</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>45960</v>
       </c>
-      <c r="B158" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202544</v>
-      </c>
-      <c r="C158" t="s">
-        <v>23</v>
-      </c>
-      <c r="D158">
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158">
         <v>2400</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>45967</v>
       </c>
-      <c r="B159" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202545</v>
-      </c>
-      <c r="C159" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159">
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159">
         <v>2500</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>45974</v>
       </c>
-      <c r="B160" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202546</v>
-      </c>
-      <c r="C160" t="s">
-        <v>23</v>
-      </c>
-      <c r="D160">
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160">
         <v>2600</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>45981</v>
       </c>
-      <c r="B161" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>202547</v>
-      </c>
-      <c r="C161" t="s">
-        <v>23</v>
-      </c>
-      <c r="D161">
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161">
         <v>2700</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D161" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C161" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
